--- a/任务二/CSE实验顺序.xlsx
+++ b/任务二/CSE实验顺序.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9555"/>
+    <workbookView windowWidth="21600" windowHeight="9555" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="block1" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,10 @@
     <sheet name="block4" sheetId="4" r:id="rId4"/>
     <sheet name="block5" sheetId="5" r:id="rId5"/>
     <sheet name="block6" sheetId="6" r:id="rId6"/>
+    <sheet name="block6 (2)" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'block6 (2)'!$J$1:$K$99</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">block1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3898" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4786" uniqueCount="108">
   <si>
     <t>列1</t>
   </si>
@@ -181,7 +183,10 @@
     <t>我的 红（红）</t>
   </si>
   <si>
-    <t>我的 红（绿）</t>
+    <t>我的 绿（红）</t>
+  </si>
+  <si>
+    <t>101</t>
   </si>
   <si>
     <t>自我 一致</t>
@@ -196,19 +201,19 @@
     <t>非自我 不一致</t>
   </si>
   <si>
-    <t>我的 绿（红）</t>
+    <t>我的 红（绿）</t>
+  </si>
+  <si>
+    <t>102</t>
   </si>
   <si>
     <t>我的 绿（绿）</t>
   </si>
   <si>
-    <t>101</t>
-  </si>
-  <si>
     <t>我的 黄（黄）</t>
   </si>
   <si>
-    <t>我的 黄（蓝）</t>
+    <t>我的 蓝（黄）</t>
   </si>
   <si>
     <t>014</t>
@@ -217,7 +222,7 @@
     <t>004</t>
   </si>
   <si>
-    <t>我的 蓝（黄）</t>
+    <t>我的 黄（蓝）</t>
   </si>
   <si>
     <t>我的 蓝（蓝）</t>
@@ -226,10 +231,10 @@
     <t>这个 红（红）</t>
   </si>
   <si>
-    <t>这个 红（绿）</t>
+    <t>这个 绿（红）</t>
   </si>
   <si>
-    <t>这个 绿（红）</t>
+    <t>这个 红（绿）</t>
   </si>
   <si>
     <t>这个 绿（绿）</t>
@@ -238,10 +243,10 @@
     <t>这个 黄（黄）</t>
   </si>
   <si>
-    <t>这个 黄（蓝）</t>
+    <t>这个 蓝（黄）</t>
   </si>
   <si>
-    <t>这个 蓝（黄）</t>
+    <t>这个 黄（蓝）</t>
   </si>
   <si>
     <t>这个 蓝（蓝）</t>
@@ -269,9 +274,6 @@
   </si>
   <si>
     <t>K</t>
-  </si>
-  <si>
-    <t>102</t>
   </si>
   <si>
     <t>93</t>
@@ -302,6 +304,63 @@
   </si>
   <si>
     <t>当前参照信息</t>
+  </si>
+  <si>
+    <t>stim</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>这个 蓝</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>我的 绿</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>我的 蓝</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>这个 绿</t>
+  </si>
+  <si>
+    <t>这个 黄</t>
+  </si>
+  <si>
+    <t>我的 红</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>我的 黄</t>
+  </si>
+  <si>
+    <t>这个 红</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1100,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1084,9 +1143,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1095,9 +1151,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1477,6 +1530,18 @@
 </table>
 </file>
 
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表7_94" displayName="表7_94" ref="A1:C1048575" totalsRowShown="0">
+  <autoFilter ref="A1:C1048575"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="列1"/>
+    <tableColumn id="2" name="列2"/>
+    <tableColumn id="3" name="列3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStylePreset3_Accent1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
@@ -1729,27 +1794,27 @@
   <sheetPr/>
   <dimension ref="A1:R99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="L28" workbookViewId="0">
-      <selection activeCell="S40" sqref="S40"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="27" style="6" customWidth="1"/>
-    <col min="2" max="2" width="4.86725663716814" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.4601769911504" style="6" customWidth="1"/>
-    <col min="4" max="4" width="25.3451327433628" style="6" customWidth="1"/>
-    <col min="5" max="5" width="12.4601769911504" style="6" customWidth="1"/>
-    <col min="6" max="6" width="13.070796460177" style="6" customWidth="1"/>
-    <col min="7" max="7" width="14.3982300884956" style="6" customWidth="1"/>
-    <col min="8" max="8" width="16.070796460177" style="6" customWidth="1"/>
-    <col min="9" max="9" width="14.6017699115044" style="6" customWidth="1"/>
+    <col min="2" max="2" width="4.86666666666667" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.4583333333333" style="6" customWidth="1"/>
+    <col min="4" max="4" width="25.3416666666667" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.4583333333333" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.0666666666667" style="6" customWidth="1"/>
+    <col min="7" max="7" width="14.4" style="6" customWidth="1"/>
+    <col min="8" max="8" width="16.0666666666667" style="6" customWidth="1"/>
+    <col min="9" max="9" width="14.6" style="6" customWidth="1"/>
     <col min="10" max="10" width="9" style="6"/>
-    <col min="11" max="11" width="20.1327433628319" style="6" customWidth="1"/>
+    <col min="11" max="11" width="20.1333333333333" style="6" customWidth="1"/>
     <col min="12" max="13" width="9" style="6"/>
-    <col min="14" max="14" width="15.2300884955752" style="6" customWidth="1"/>
-    <col min="15" max="16" width="16.3362831858407" style="6" customWidth="1"/>
-    <col min="17" max="17" width="15.9380530973451" style="6" customWidth="1"/>
+    <col min="14" max="14" width="15.2333333333333" style="6" customWidth="1"/>
+    <col min="15" max="16" width="16.3333333333333" style="6" customWidth="1"/>
+    <col min="17" max="17" width="15.9416666666667" style="6" customWidth="1"/>
     <col min="18" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -2493,20 +2558,20 @@
       <c r="K23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L23" s="6">
-        <v>101</v>
+      <c r="L23" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2538,10 +2603,10 @@
         <v>20</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L24" s="6">
-        <v>102</v>
+        <v>54</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="N24" s="6">
         <v>111</v>
@@ -2585,10 +2650,10 @@
         <v>20</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L25" s="6">
-        <v>112</v>
+        <v>56</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="N25" s="6">
         <v>112</v>
@@ -2611,7 +2676,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>24</v>
@@ -2632,10 +2697,10 @@
         <v>20</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L26" s="6">
-        <v>113</v>
+        <v>57</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="N26" s="6">
         <v>113</v>
@@ -2679,7 +2744,7 @@
         <v>20</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L27" s="6">
         <v>103</v>
@@ -2691,10 +2756,10 @@
         <v>104</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2726,10 +2791,10 @@
         <v>20</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L28" s="6">
-        <v>104</v>
+        <v>61</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2761,7 +2826,7 @@
         <v>19</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L29" s="6">
         <v>114</v>
@@ -2796,7 +2861,7 @@
         <v>20</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L30" s="6" t="s">
         <v>40</v>
@@ -2831,7 +2896,7 @@
         <v>20</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L31" s="6" t="s">
         <v>6</v>
@@ -2866,7 +2931,7 @@
         <v>20</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L32" s="6" t="s">
         <v>17</v>
@@ -2901,7 +2966,7 @@
         <v>19</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L33" s="6" t="s">
         <v>29</v>
@@ -2936,7 +3001,7 @@
         <v>20</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L34" s="6" t="s">
         <v>22</v>
@@ -2971,7 +3036,7 @@
         <v>19</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L35" s="6" t="s">
         <v>32</v>
@@ -3006,10 +3071,10 @@
         <v>19</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3041,10 +3106,10 @@
         <v>20</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3175,10 +3240,10 @@
         <v>19</v>
       </c>
       <c r="N41" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O41" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -3210,9 +3275,9 @@
         <v>19</v>
       </c>
       <c r="N42" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="O42" s="14"/>
+        <v>73</v>
+      </c>
+      <c r="O42" s="13"/>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="6" t="s">
@@ -3242,11 +3307,11 @@
       <c r="I43" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N43" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="O43" s="16" t="s">
-        <v>73</v>
+      <c r="N43" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="O43" s="15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -3277,11 +3342,11 @@
       <c r="I44" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M44" s="17"/>
-      <c r="N44" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="O44" s="18"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="O44" s="15"/>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="6" t="s">
@@ -3291,7 +3356,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>16</v>
@@ -3311,11 +3376,11 @@
       <c r="I45" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N45" s="19" t="s">
-        <v>74</v>
+      <c r="N45" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="O45" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -3346,10 +3411,10 @@
       <c r="I46" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N46" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="O46" s="14"/>
+      <c r="N46" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="O46" s="13"/>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="6" t="s">
@@ -3379,11 +3444,11 @@
       <c r="I47" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N47" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="O47" s="16" t="s">
-        <v>77</v>
+      <c r="N47" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="O47" s="15" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3414,10 +3479,10 @@
       <c r="I48" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N48" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="O48" s="18"/>
+      <c r="N48" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="O48" s="15"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="6" t="s">
@@ -3447,7 +3512,7 @@
       <c r="I49" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N49" s="17"/>
+      <c r="N49" s="16"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="6" t="s">
@@ -3486,7 +3551,7 @@
         <v>2</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>24</v>
@@ -3544,7 +3609,7 @@
         <v>2</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>24</v>
@@ -3631,7 +3696,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>13</v>
@@ -3660,7 +3725,7 @@
         <v>2</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>13</v>
@@ -3863,7 +3928,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>24</v>
@@ -3892,7 +3957,7 @@
         <v>2</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>13</v>
@@ -3921,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>16</v>
@@ -3950,7 +4015,7 @@
         <v>2</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>13</v>
@@ -4124,7 +4189,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>21</v>
@@ -4153,7 +4218,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>21</v>
@@ -4211,7 +4276,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>13</v>
@@ -4472,7 +4537,7 @@
         <v>2</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>21</v>
@@ -4501,7 +4566,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>16</v>
@@ -4530,7 +4595,7 @@
         <v>2</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>13</v>
@@ -4675,7 +4740,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>24</v>
@@ -4791,7 +4856,7 @@
         <v>1</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>21</v>
@@ -4918,15 +4983,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="24.1327433628319" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.1333333333333" style="2" customWidth="1"/>
     <col min="2" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="23.8318584070796" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.070796460177" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.6017699115044" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.3362831858407" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.2035398230088" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.8333333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.0666666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.6" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.3333333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.2" style="2" customWidth="1"/>
     <col min="10" max="11" width="9" style="1"/>
-    <col min="12" max="13" width="24.1327433628319" style="2" customWidth="1"/>
+    <col min="12" max="13" width="24.1333333333333" style="2" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4965,7 +5030,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -5275,7 +5340,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3">
         <v>11</v>
@@ -5585,7 +5650,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D22" s="3">
         <v>21</v>
@@ -5709,7 +5774,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D26" s="3">
         <v>25</v>
@@ -6143,7 +6208,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D40" s="3">
         <v>39</v>
@@ -6329,7 +6394,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D46" s="3">
         <v>45</v>
@@ -6577,7 +6642,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D54" s="3">
         <v>53</v>
@@ -6825,7 +6890,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D62" s="3">
         <v>61</v>
@@ -7011,7 +7076,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D68" s="3">
         <v>67</v>
@@ -7073,7 +7138,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D70" s="3">
         <v>69</v>
@@ -7197,7 +7262,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D74" s="3">
         <v>73</v>
@@ -7569,7 +7634,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D86" s="3">
         <v>85</v>
@@ -7631,7 +7696,7 @@
         <v>1</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D88" s="3">
         <v>87</v>
@@ -7879,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D96" s="3">
         <v>95</v>
@@ -7941,7 +8006,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D98" s="3">
         <v>97</v>
@@ -7990,12 +8055,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="24.1327433628319" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.1333333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="5" width="15.070796460177" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.6017699115044" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.3362831858407" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.2035398230088" style="2" customWidth="1"/>
+    <col min="3" max="5" width="15.0666666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.6" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.3333333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.2" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -8079,7 +8144,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
@@ -8175,7 +8240,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
@@ -8247,7 +8312,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
@@ -8319,7 +8384,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
@@ -8343,7 +8408,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
@@ -8511,7 +8576,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
@@ -8583,7 +8648,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
@@ -8679,7 +8744,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
@@ -8751,7 +8816,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
@@ -8991,7 +9056,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
@@ -9087,7 +9152,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
@@ -9183,7 +9248,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
@@ -9207,7 +9272,7 @@
         <v>2</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
@@ -9231,7 +9296,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
@@ -9423,7 +9488,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
@@ -9495,7 +9560,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
@@ -9591,7 +9656,7 @@
         <v>2</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
@@ -9711,7 +9776,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3" t="s">
@@ -9735,7 +9800,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
@@ -9783,7 +9848,7 @@
         <v>2</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
@@ -9975,7 +10040,7 @@
         <v>2</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="s">
@@ -9999,7 +10064,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
@@ -10167,7 +10232,7 @@
         <v>2</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
@@ -10215,7 +10280,7 @@
         <v>2</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3" t="s">
@@ -10373,18 +10438,18 @@
   <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A2" sqref="A2:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="27" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.30088495575221" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.4601769911504" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23.6371681415929" customWidth="1"/>
-    <col min="7" max="7" width="22.5752212389381" customWidth="1"/>
-    <col min="8" max="8" width="16.3362831858407" customWidth="1"/>
-    <col min="9" max="10" width="13.4336283185841" customWidth="1"/>
+    <col min="2" max="2" width="9.3" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.4583333333333" style="6" customWidth="1"/>
+    <col min="5" max="5" width="23.6333333333333" customWidth="1"/>
+    <col min="7" max="7" width="22.575" customWidth="1"/>
+    <col min="8" max="8" width="16.3333333333333" customWidth="1"/>
+    <col min="9" max="10" width="13.4333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -10449,7 +10514,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>13</v>
@@ -10478,7 +10543,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>16</v>
@@ -10594,7 +10659,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>21</v>
@@ -10681,7 +10746,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>13</v>
@@ -10710,7 +10775,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>21</v>
@@ -10913,7 +10978,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>13</v>
@@ -11000,7 +11065,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>21</v>
@@ -11145,7 +11210,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>13</v>
@@ -11203,7 +11268,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>13</v>
@@ -11290,7 +11355,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>16</v>
@@ -11319,7 +11384,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>13</v>
@@ -11348,7 +11413,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>21</v>
@@ -11522,7 +11587,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>16</v>
@@ -11696,7 +11761,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>21</v>
@@ -11725,7 +11790,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>13</v>
@@ -11928,7 +11993,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>21</v>
@@ -11957,7 +12022,7 @@
         <v>2</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>13</v>
@@ -12102,7 +12167,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>16</v>
@@ -12160,7 +12225,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>16</v>
@@ -12450,7 +12515,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>21</v>
@@ -12537,7 +12602,7 @@
         <v>2</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>13</v>
@@ -12624,7 +12689,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>21</v>
@@ -12653,7 +12718,7 @@
         <v>2</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>13</v>
@@ -12711,7 +12776,7 @@
         <v>2</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>13</v>
@@ -12769,7 +12834,7 @@
         <v>2</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>13</v>
@@ -12798,7 +12863,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>21</v>
@@ -12914,7 +12979,7 @@
         <v>1</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>21</v>
@@ -12943,7 +13008,7 @@
         <v>2</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>13</v>
@@ -13059,7 +13124,7 @@
         <v>2</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>13</v>
@@ -13175,7 +13240,7 @@
         <v>2</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>13</v>
@@ -13245,15 +13310,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="24.1327433628319" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.1333333333333" style="2" customWidth="1"/>
     <col min="2" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="23.8318584070796" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.070796460177" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.6017699115044" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.3362831858407" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.2035398230088" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.8333333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.0666666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.6" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.3333333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.2" style="2" customWidth="1"/>
     <col min="10" max="11" width="9" style="1"/>
-    <col min="12" max="13" width="24.1327433628319" style="2" customWidth="1"/>
+    <col min="12" max="13" width="24.1333333333333" style="2" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -13385,7 +13450,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
@@ -13633,7 +13698,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D13" s="3">
         <v>12</v>
@@ -13881,7 +13946,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="3">
         <v>20</v>
@@ -14191,7 +14256,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D31" s="3">
         <v>30</v>
@@ -14377,7 +14442,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D37" s="3">
         <v>36</v>
@@ -14501,7 +14566,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D41" s="3">
         <v>40</v>
@@ -14935,7 +15000,7 @@
         <v>2</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D55" s="3">
         <v>54</v>
@@ -15617,7 +15682,7 @@
         <v>2</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D77" s="3">
         <v>76</v>
@@ -15927,7 +15992,7 @@
         <v>2</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D87" s="3">
         <v>86</v>
@@ -16318,18 +16383,18 @@
   <sheetPr/>
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="24.1327433628319" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.1333333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="5" width="15.070796460177" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.6017699115044" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.3362831858407" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.2035398230088" style="2" customWidth="1"/>
+    <col min="3" max="5" width="15.0666666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.6" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.3333333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.2" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -16365,7 +16430,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
@@ -16389,7 +16454,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
@@ -16485,7 +16550,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
@@ -16533,7 +16598,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
@@ -16605,7 +16670,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
@@ -16725,7 +16790,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
@@ -16749,7 +16814,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
@@ -16773,7 +16838,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
@@ -16869,7 +16934,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
@@ -16989,7 +17054,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
@@ -17037,7 +17102,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
@@ -17157,7 +17222,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
@@ -17229,7 +17294,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
@@ -17253,7 +17318,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
@@ -17277,7 +17342,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
@@ -17637,7 +17702,7 @@
         <v>2</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
@@ -17661,7 +17726,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
@@ -17709,7 +17774,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
@@ -17781,7 +17846,7 @@
         <v>2</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
@@ -17949,7 +18014,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
@@ -18141,7 +18206,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
@@ -18237,7 +18302,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3" t="s">
@@ -18285,7 +18350,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3" t="s">
@@ -18453,7 +18518,7 @@
         <v>2</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
@@ -18597,7 +18662,7 @@
         <v>2</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
@@ -18621,7 +18686,7 @@
         <v>1</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3" t="s">
@@ -18702,4 +18767,3283 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="24.1333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="5" width="15.0666666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.6" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.3333333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.2" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="15.0666666666667" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:12">
+      <c r="A2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:12">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:12">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:12">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:12">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:12">
+      <c r="A19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:12">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:12">
+      <c r="A22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:12">
+      <c r="A23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:12">
+      <c r="A24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:12">
+      <c r="A25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:12">
+      <c r="A26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:12">
+      <c r="A27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:12">
+      <c r="A28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:12">
+      <c r="A29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:12">
+      <c r="A30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:12">
+      <c r="A31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:12">
+      <c r="A32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:12">
+      <c r="A33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:12">
+      <c r="A34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:12">
+      <c r="A35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="3">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:12">
+      <c r="A36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:12">
+      <c r="A37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="3">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:12">
+      <c r="A38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:12">
+      <c r="A39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="3">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:12">
+      <c r="A40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:12">
+      <c r="A41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="3">
+        <v>2</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:12">
+      <c r="A42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:12">
+      <c r="A43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="3">
+        <v>2</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:12">
+      <c r="A44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:12">
+      <c r="A45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:12">
+      <c r="A46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:12">
+      <c r="A47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="3">
+        <v>2</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:12">
+      <c r="A48" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:12">
+      <c r="A49" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="3">
+        <v>2</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:12">
+      <c r="A50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:12">
+      <c r="A51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="3">
+        <v>2</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:12">
+      <c r="A52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="1:12">
+      <c r="A53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="3">
+        <v>2</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="1:12">
+      <c r="A54" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="1:12">
+      <c r="A55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="1:12">
+      <c r="A56" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="3">
+        <v>1</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="1:12">
+      <c r="A57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="3">
+        <v>2</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="1:12">
+      <c r="A58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="1:12">
+      <c r="A59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="3">
+        <v>2</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:12">
+      <c r="A60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="1:12">
+      <c r="A61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="3">
+        <v>2</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="1:12">
+      <c r="A62" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="1:12">
+      <c r="A63" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="3">
+        <v>2</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="1:12">
+      <c r="A64" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="1:12">
+      <c r="A65" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="3">
+        <v>2</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="1:12">
+      <c r="A66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="3">
+        <v>1</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="1:12">
+      <c r="A67" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="3">
+        <v>2</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="1:12">
+      <c r="A68" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" s="3">
+        <v>1</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="1:12">
+      <c r="A69" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="3">
+        <v>2</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="1:12">
+      <c r="A70" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="3">
+        <v>1</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="1:12">
+      <c r="A71" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" s="3">
+        <v>2</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="1:12">
+      <c r="A72" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="1:12">
+      <c r="A73" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" s="3">
+        <v>2</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="1:12">
+      <c r="A74" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="1:12">
+      <c r="A75" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="3">
+        <v>2</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="1:12">
+      <c r="A76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="1:12">
+      <c r="A77" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77" s="3">
+        <v>2</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="1:12">
+      <c r="A78" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" s="3">
+        <v>1</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="1:12">
+      <c r="A79" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" s="3">
+        <v>2</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="1:12">
+      <c r="A80" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" s="3">
+        <v>1</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="1:12">
+      <c r="A81" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="3">
+        <v>2</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="1:12">
+      <c r="A82" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" s="3">
+        <v>1</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" s="1" customFormat="1" spans="1:12">
+      <c r="A83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="3">
+        <v>2</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" s="1" customFormat="1" spans="1:12">
+      <c r="A84" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" s="1" customFormat="1" spans="1:12">
+      <c r="A85" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="3">
+        <v>2</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" s="1" customFormat="1" spans="1:12">
+      <c r="A86" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" s="3">
+        <v>1</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" s="1" customFormat="1" spans="1:12">
+      <c r="A87" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" s="3">
+        <v>2</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" s="1" customFormat="1" spans="1:12">
+      <c r="A88" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" s="3">
+        <v>1</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" s="1" customFormat="1" spans="1:12">
+      <c r="A89" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" s="3">
+        <v>2</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" s="1" customFormat="1" spans="1:12">
+      <c r="A90" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90" s="3">
+        <v>1</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" s="1" customFormat="1" spans="1:12">
+      <c r="A91" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" s="3">
+        <v>2</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="92" s="1" customFormat="1" spans="1:12">
+      <c r="A92" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" s="1" customFormat="1" spans="1:12">
+      <c r="A93" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" s="3">
+        <v>2</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94" s="1" customFormat="1" spans="1:12">
+      <c r="A94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" s="3">
+        <v>1</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" s="1" customFormat="1" spans="1:12">
+      <c r="A95" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" s="3">
+        <v>2</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="96" s="1" customFormat="1" spans="1:12">
+      <c r="A96" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" s="3">
+        <v>1</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" s="1" customFormat="1" spans="1:12">
+      <c r="A97" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" s="3">
+        <v>2</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" s="1" customFormat="1" spans="1:12">
+      <c r="A98" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" s="3">
+        <v>1</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" s="1" customFormat="1" spans="1:10">
+      <c r="A99" s="3"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="2"/>
+      <c r="J99" s="4"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="J1:K99">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>